--- a/1_Data/Data_ETF_YIELDS_1.0.xlsx
+++ b/1_Data/Data_ETF_YIELDS_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Dropbox/00 UZH/Master/PMP/01. Offline PMP/PMP Coding/PMP-Term-Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corinne Vogel\Documents\UZH\Master 2. Semester\PMP\Code\PMP-Term-Paper\1_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02CEE03-6741-BA4D-969F-668EEA99B9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483D24A5-9D20-496F-8467-2A724B11AEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51140" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Needs Mapped" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="201">
   <si>
     <t>Countries</t>
   </si>
@@ -1028,7 +1028,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1457,29 +1457,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="22.5">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="22.5">
       <c r="C8">
         <v>3</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="22.5">
       <c r="C9">
         <v>4</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="C10">
         <v>5</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="C11">
         <v>6</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="22.5">
       <c r="C12">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="C13">
         <v>8</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="C14">
         <v>9</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="C15">
         <v>10</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="C16">
         <v>11</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20">
       <c r="C17">
         <v>12</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20">
       <c r="C18">
         <v>13</v>
       </c>
@@ -2074,22 +2074,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20">
       <c r="H19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20">
       <c r="E20" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20">
       <c r="E25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:12">
       <c r="D33" s="5" t="s">
         <v>149</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:12">
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:12">
       <c r="F35" t="s">
         <v>21</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:12">
       <c r="F36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:12">
       <c r="D37">
         <v>1</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:12">
       <c r="D38">
         <v>2</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:12">
       <c r="D39">
         <v>3</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:12">
       <c r="D40">
         <v>4</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:12">
       <c r="D41">
         <v>5</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:12">
       <c r="D42">
         <v>6</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:12">
       <c r="D43">
         <v>7</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:12">
       <c r="D44">
         <v>8</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:12">
       <c r="D45">
         <v>9</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:12">
       <c r="D46">
         <v>10</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:12">
       <c r="D47">
         <v>11</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:12">
       <c r="D48">
         <v>12</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:12">
       <c r="D49">
         <v>13</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:12">
       <c r="D50">
         <v>14</v>
       </c>
@@ -2615,11 +2615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2666,9 +2671,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
@@ -2716,7 +2721,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="12">
         <v>36525</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="12">
         <v>36556</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="12">
         <v>36585</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="12">
         <v>36616</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>36644</v>
       </c>
@@ -2966,7 +2971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="12">
         <v>36677</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="12">
         <v>36707</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="12">
         <v>36738</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="12">
         <v>36769</v>
       </c>
@@ -3166,7 +3171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="12">
         <v>36798</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>36830</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="12">
         <v>36860</v>
       </c>
@@ -3316,7 +3321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>36889</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>36922</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="12">
         <v>36950</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="12">
         <v>36980</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="12">
         <v>37011</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="12">
         <v>37042</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="12">
         <v>37071</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="12">
         <v>37103</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="12">
         <v>37134</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="12">
         <v>37162</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="12">
         <v>37195</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="12">
         <v>37225</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="12">
         <v>37256</v>
       </c>
@@ -3966,7 +3971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="12">
         <v>37287</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="12">
         <v>37315</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="12">
         <v>37344</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="12">
         <v>37376</v>
       </c>
@@ -4166,7 +4171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="12">
         <v>37407</v>
       </c>
@@ -4216,7 +4221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="12">
         <v>37435</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="12">
         <v>37468</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="12">
         <v>37498</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="12">
         <v>37529</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="12">
         <v>37560</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="12">
         <v>37589</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="12">
         <v>37621</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="12">
         <v>37652</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="12">
         <v>37680</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="12">
         <v>37711</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="12">
         <v>37741</v>
       </c>
@@ -4766,7 +4771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="12">
         <v>37771</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="12">
         <v>37802</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="12">
         <v>37833</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="12">
         <v>37862</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="12">
         <v>37894</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="12">
         <v>37925</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="12">
         <v>37953</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="12">
         <v>37986</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="12">
         <v>38016</v>
       </c>
@@ -5216,7 +5221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="12">
         <v>38044</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="12">
         <v>38077</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="12">
         <v>38107</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="12">
         <v>38138</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="12">
         <v>38168</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="12">
         <v>38198</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="12">
         <v>38230</v>
       </c>
@@ -5566,7 +5571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="12">
         <v>38260</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="12">
         <v>38289</v>
       </c>
@@ -5666,7 +5671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="12">
         <v>38321</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="12">
         <v>38352</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="12">
         <v>38383</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="12">
         <v>38411</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="12">
         <v>38442</v>
       </c>
@@ -5916,7 +5921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="12">
         <v>38471</v>
       </c>
@@ -5966,7 +5971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="12">
         <v>38503</v>
       </c>
@@ -6016,7 +6021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" s="12">
         <v>38533</v>
       </c>
@@ -6066,7 +6071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" s="12">
         <v>38562</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" s="12">
         <v>38595</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" s="12">
         <v>38625</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="12">
         <v>38656</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" s="12">
         <v>38686</v>
       </c>
@@ -6316,7 +6321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="12">
         <v>38716</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="12">
         <v>38748</v>
       </c>
@@ -6416,7 +6421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="12">
         <v>38776</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" s="12">
         <v>38807</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" s="12">
         <v>38835</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" s="12">
         <v>38868</v>
       </c>
@@ -6616,7 +6621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" s="12">
         <v>38898</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" s="12">
         <v>38929</v>
       </c>
@@ -6716,7 +6721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" s="12">
         <v>38960</v>
       </c>
@@ -6766,7 +6771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" s="12">
         <v>38989</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" s="12">
         <v>39021</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86" s="12">
         <v>39051</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87" s="12">
         <v>39080</v>
       </c>
@@ -6966,7 +6971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88" s="12">
         <v>39113</v>
       </c>
@@ -7016,7 +7021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89" s="12">
         <v>39141</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90" s="12">
         <v>39171</v>
       </c>
@@ -7116,7 +7121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="A91" s="12">
         <v>39202</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="12">
         <v>39233</v>
       </c>
@@ -7216,7 +7221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="12">
         <v>39262</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="12">
         <v>39294</v>
       </c>
@@ -7316,7 +7321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="12">
         <v>39325</v>
       </c>
@@ -7366,7 +7371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="12">
         <v>39353</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="12">
         <v>39386</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="12">
         <v>39416</v>
       </c>
@@ -7516,7 +7521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="12">
         <v>39447</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="12">
         <v>39478</v>
       </c>
@@ -7616,7 +7621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="12">
         <v>39507</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="12">
         <v>39538</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="12">
         <v>39568</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="12">
         <v>39598</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="12">
         <v>39629</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="12">
         <v>39660</v>
       </c>
@@ -7916,7 +7921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="12">
         <v>39689</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="12">
         <v>39721</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="12">
         <v>39752</v>
       </c>
@@ -8066,7 +8071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="12">
         <v>39780</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="12">
         <v>39813</v>
       </c>
@@ -8166,7 +8171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="12">
         <v>39843</v>
       </c>
@@ -8216,7 +8221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="12">
         <v>39871</v>
       </c>
@@ -8266,7 +8271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="12">
         <v>39903</v>
       </c>
@@ -8316,7 +8321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="12">
         <v>39933</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="12">
         <v>39962</v>
       </c>
@@ -8416,7 +8421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="12">
         <v>39994</v>
       </c>
@@ -8466,7 +8471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="12">
         <v>40025</v>
       </c>
@@ -8516,7 +8521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="12">
         <v>40056</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="12">
         <v>40086</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="12">
         <v>40116</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="12">
         <v>40147</v>
       </c>
@@ -8716,7 +8721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="12">
         <v>40178</v>
       </c>
@@ -8766,7 +8771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="12">
         <v>40207</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="12">
         <v>40235</v>
       </c>
@@ -8866,7 +8871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="12">
         <v>40268</v>
       </c>
@@ -8916,7 +8921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="12">
         <v>40298</v>
       </c>
@@ -8966,7 +8971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="12">
         <v>40329</v>
       </c>
@@ -9016,7 +9021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="12">
         <v>40359</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="12">
         <v>40389</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="12">
         <v>40421</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="12">
         <v>40451</v>
       </c>
@@ -9216,7 +9221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="12">
         <v>40480</v>
       </c>
@@ -9266,7 +9271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="12">
         <v>40512</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="12">
         <v>40543</v>
       </c>
@@ -9366,7 +9371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="12">
         <v>40574</v>
       </c>
@@ -9416,7 +9421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="12">
         <v>40602</v>
       </c>
@@ -9466,7 +9471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="12">
         <v>40633</v>
       </c>
@@ -9516,7 +9521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="12">
         <v>40662</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="12">
         <v>40694</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="12">
         <v>40724</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="12">
         <v>40753</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="12">
         <v>40786</v>
       </c>
@@ -9766,7 +9771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="12">
         <v>40816</v>
       </c>
@@ -9816,7 +9821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="A145" s="12">
         <v>40847</v>
       </c>
@@ -9866,7 +9871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="12">
         <v>40877</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="12">
         <v>40907</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="12">
         <v>40939</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="12">
         <v>40968</v>
       </c>
@@ -10066,7 +10071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="12">
         <v>40998</v>
       </c>
@@ -10116,7 +10121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="12">
         <v>41029</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="12">
         <v>41060</v>
       </c>
@@ -10216,7 +10221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="12">
         <v>41089</v>
       </c>
@@ -10266,7 +10271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="12">
         <v>41121</v>
       </c>
@@ -10316,7 +10321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="12">
         <v>41152</v>
       </c>
@@ -10366,7 +10371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="12">
         <v>41180</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="12">
         <v>41213</v>
       </c>
@@ -10466,7 +10471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="12">
         <v>41243</v>
       </c>
@@ -10516,7 +10521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="12">
         <v>41274</v>
       </c>
@@ -10566,7 +10571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="12">
         <v>41305</v>
       </c>
@@ -10616,7 +10621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="12">
         <v>41333</v>
       </c>
@@ -10666,7 +10671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="12">
         <v>41362</v>
       </c>
@@ -10716,7 +10721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="12">
         <v>41394</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="12">
         <v>41425</v>
       </c>
@@ -10816,7 +10821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="12">
         <v>41453</v>
       </c>
@@ -10866,7 +10871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="12">
         <v>41486</v>
       </c>
@@ -10916,7 +10921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="12">
         <v>41516</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="12">
         <v>41547</v>
       </c>
@@ -11016,7 +11021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="12">
         <v>41578</v>
       </c>
@@ -11066,7 +11071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="12">
         <v>41607</v>
       </c>
@@ -11116,7 +11121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="12">
         <v>41639</v>
       </c>
@@ -11166,7 +11171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="12">
         <v>41670</v>
       </c>
@@ -11216,7 +11221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="12">
         <v>41698</v>
       </c>
@@ -11266,7 +11271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="12">
         <v>41729</v>
       </c>
@@ -11316,7 +11321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="12">
         <v>41759</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="12">
         <v>41789</v>
       </c>
@@ -11416,7 +11421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16">
       <c r="A177" s="12">
         <v>41820</v>
       </c>
@@ -11466,7 +11471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16">
       <c r="A178" s="12">
         <v>41851</v>
       </c>
@@ -11516,7 +11521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16">
       <c r="A179" s="12">
         <v>41880</v>
       </c>
@@ -11566,7 +11571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16">
       <c r="A180" s="12">
         <v>41912</v>
       </c>
@@ -11616,7 +11621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16">
       <c r="A181" s="12">
         <v>41943</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16">
       <c r="A182" s="12">
         <v>41971</v>
       </c>
@@ -11716,7 +11721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16">
       <c r="A183" s="12">
         <v>42004</v>
       </c>
@@ -11766,7 +11771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16">
       <c r="A184" s="12">
         <v>42034</v>
       </c>
@@ -11816,7 +11821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16">
       <c r="A185" s="12">
         <v>42062</v>
       </c>
@@ -11866,7 +11871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16">
       <c r="A186" s="12">
         <v>42094</v>
       </c>
@@ -11916,7 +11921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16">
       <c r="A187" s="12">
         <v>42124</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16">
       <c r="A188" s="12">
         <v>42153</v>
       </c>
@@ -12016,7 +12021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16">
       <c r="A189" s="12">
         <v>42185</v>
       </c>
@@ -12066,7 +12071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16">
       <c r="A190" s="12">
         <v>42216</v>
       </c>
@@ -12116,7 +12121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16">
       <c r="A191" s="12">
         <v>42247</v>
       </c>
@@ -12166,7 +12171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16">
       <c r="A192" s="12">
         <v>42277</v>
       </c>
@@ -12216,7 +12221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16">
       <c r="A193" s="12">
         <v>42307</v>
       </c>
@@ -12266,7 +12271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16">
       <c r="A194" s="12">
         <v>42338</v>
       </c>
@@ -12316,7 +12321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16">
       <c r="A195" s="12">
         <v>42369</v>
       </c>
@@ -12366,7 +12371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16">
       <c r="A196" s="12">
         <v>42398</v>
       </c>
@@ -12416,7 +12421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16">
       <c r="A197" s="12">
         <v>42429</v>
       </c>
@@ -12466,7 +12471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16">
       <c r="A198" s="12">
         <v>42460</v>
       </c>
@@ -12516,7 +12521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16">
       <c r="A199" s="12">
         <v>42489</v>
       </c>
@@ -12566,7 +12571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16">
       <c r="A200" s="12">
         <v>42521</v>
       </c>
@@ -12616,7 +12621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16">
       <c r="A201" s="12">
         <v>42551</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16">
       <c r="A202" s="12">
         <v>42580</v>
       </c>
@@ -12716,7 +12721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16">
       <c r="A203" s="12">
         <v>42613</v>
       </c>
@@ -12766,7 +12771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16">
       <c r="A204" s="12">
         <v>42643</v>
       </c>
@@ -12816,7 +12821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16">
       <c r="A205" s="12">
         <v>42674</v>
       </c>
@@ -12866,7 +12871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16">
       <c r="A206" s="12">
         <v>42704</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16">
       <c r="A207" s="12">
         <v>42734</v>
       </c>
@@ -12966,7 +12971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16">
       <c r="A208" s="12">
         <v>42766</v>
       </c>
@@ -13016,7 +13021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16">
       <c r="A209" s="12">
         <v>42794</v>
       </c>
@@ -13066,7 +13071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16">
       <c r="A210" s="12">
         <v>42825</v>
       </c>
@@ -13116,7 +13121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16">
       <c r="A211" s="12">
         <v>42853</v>
       </c>
@@ -13166,7 +13171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16">
       <c r="A212" s="12">
         <v>42886</v>
       </c>
@@ -13216,7 +13221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16">
       <c r="A213" s="12">
         <v>42916</v>
       </c>
@@ -13266,7 +13271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16">
       <c r="A214" s="12">
         <v>42947</v>
       </c>
@@ -13316,7 +13321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16">
       <c r="A215" s="12">
         <v>42978</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16">
       <c r="A216" s="12">
         <v>43007</v>
       </c>
@@ -13416,7 +13421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16">
       <c r="A217" s="12">
         <v>43039</v>
       </c>
@@ -13466,7 +13471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16">
       <c r="A218" s="12">
         <v>43069</v>
       </c>
@@ -13516,7 +13521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16">
       <c r="A219" s="12">
         <v>43098</v>
       </c>
@@ -13566,7 +13571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16">
       <c r="A220" s="12">
         <v>43131</v>
       </c>
@@ -13616,7 +13621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16">
       <c r="A221" s="12">
         <v>43159</v>
       </c>
@@ -13666,7 +13671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16">
       <c r="A222" s="12">
         <v>43189</v>
       </c>
@@ -13716,7 +13721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16">
       <c r="A223" s="12">
         <v>43220</v>
       </c>
@@ -13766,7 +13771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16">
       <c r="A224" s="12">
         <v>43251</v>
       </c>
@@ -13816,7 +13821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16">
       <c r="A225" s="12">
         <v>43280</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16">
       <c r="A226" s="12">
         <v>43312</v>
       </c>
@@ -13916,7 +13921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16">
       <c r="A227" s="12">
         <v>43343</v>
       </c>
@@ -13966,7 +13971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16">
       <c r="A228" s="12">
         <v>43371</v>
       </c>
@@ -14016,7 +14021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16">
       <c r="A229" s="12">
         <v>43404</v>
       </c>
@@ -14066,7 +14071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16">
       <c r="A230" s="12">
         <v>43434</v>
       </c>
@@ -14116,7 +14121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16">
       <c r="A231" s="12">
         <v>43465</v>
       </c>
@@ -14166,7 +14171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16">
       <c r="A232" s="12">
         <v>43496</v>
       </c>
@@ -14216,7 +14221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16">
       <c r="A233" s="12">
         <v>43524</v>
       </c>
@@ -14266,7 +14271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16">
       <c r="A234" s="12">
         <v>43553</v>
       </c>
@@ -14316,7 +14321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16">
       <c r="A235" s="12">
         <v>43585</v>
       </c>
@@ -14366,7 +14371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16">
       <c r="A236" s="12">
         <v>43616</v>
       </c>
@@ -14416,7 +14421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16">
       <c r="A237" s="12">
         <v>43644</v>
       </c>
@@ -14466,7 +14471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16">
       <c r="A238" s="12">
         <v>43677</v>
       </c>
@@ -14516,7 +14521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16">
       <c r="A239" s="12">
         <v>43707</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16">
       <c r="A240" s="12">
         <v>43738</v>
       </c>
@@ -14616,7 +14621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16">
       <c r="A241" s="12">
         <v>43769</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16">
       <c r="A242" s="12">
         <v>43798</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16">
       <c r="A243" s="12">
         <v>43830</v>
       </c>
@@ -14766,7 +14771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16">
       <c r="A244" s="12">
         <v>43861</v>
       </c>
@@ -14816,7 +14821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16">
       <c r="A245" s="12">
         <v>43889</v>
       </c>
@@ -14866,7 +14871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16">
       <c r="A246" s="12">
         <v>43921</v>
       </c>
@@ -14916,7 +14921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16">
       <c r="A247" s="12">
         <v>43951</v>
       </c>
@@ -14966,7 +14971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16">
       <c r="A248" s="12">
         <v>43980</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16">
       <c r="A249" s="12">
         <v>44012</v>
       </c>
@@ -15066,7 +15071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16">
       <c r="A250" s="12">
         <v>44043</v>
       </c>
@@ -15116,7 +15121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16">
       <c r="A251" s="12">
         <v>44074</v>
       </c>
@@ -15166,7 +15171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16">
       <c r="A252" s="12">
         <v>44104</v>
       </c>
@@ -15216,7 +15221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16">
       <c r="A253" s="12">
         <v>44134</v>
       </c>
@@ -15266,7 +15271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16">
       <c r="A254" s="12">
         <v>44165</v>
       </c>
@@ -15316,7 +15321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16">
       <c r="A255" s="12">
         <v>44196</v>
       </c>
@@ -15366,7 +15371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16">
       <c r="A256" s="12">
         <v>44225</v>
       </c>
@@ -15416,7 +15421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16">
       <c r="A257" s="12">
         <v>44253</v>
       </c>
@@ -15466,7 +15471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16">
       <c r="A258" s="12">
         <v>44286</v>
       </c>
@@ -15516,7 +15521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16">
       <c r="A259" s="12">
         <v>44316</v>
       </c>
@@ -15566,7 +15571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16">
       <c r="A260" s="12">
         <v>44347</v>
       </c>
@@ -15616,7 +15621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16">
       <c r="A261" s="12">
         <v>44377</v>
       </c>
@@ -15666,7 +15671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16">
       <c r="A262" s="12">
         <v>44407</v>
       </c>
@@ -15716,7 +15721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16">
       <c r="A263" s="12">
         <v>44439</v>
       </c>
@@ -15766,7 +15771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16">
       <c r="A264" s="12">
         <v>44469</v>
       </c>
@@ -15816,7 +15821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16">
       <c r="A265" s="12">
         <v>44498</v>
       </c>
@@ -15866,7 +15871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16">
       <c r="A266" s="12">
         <v>44530</v>
       </c>
@@ -15916,7 +15921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16">
       <c r="A267" s="12">
         <v>44561</v>
       </c>
@@ -15966,7 +15971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16">
       <c r="A268" s="12">
         <v>44592</v>
       </c>
@@ -16016,7 +16021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16">
       <c r="A269" s="12">
         <v>44620</v>
       </c>
@@ -16066,7 +16071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16">
       <c r="A270" s="12">
         <v>44651</v>
       </c>
@@ -16116,7 +16121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16">
       <c r="A271" s="12">
         <v>44680</v>
       </c>
@@ -16166,7 +16171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16">
       <c r="A272" s="12">
         <v>44712</v>
       </c>
@@ -16216,7 +16221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="12">
         <v>44742</v>
       </c>
@@ -16266,7 +16271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="12">
         <v>44771</v>
       </c>
@@ -16316,7 +16321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="12">
         <v>44804</v>
       </c>
@@ -16366,7 +16371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="12">
         <v>44834</v>
       </c>
@@ -16416,7 +16421,7 @@
         <v>32.787500000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16">
       <c r="A277" s="12">
         <v>44865</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>32.217500000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16">
       <c r="A278" s="12">
         <v>44895</v>
       </c>
@@ -16516,7 +16521,7 @@
         <v>33.365000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16">
       <c r="A279" s="12">
         <v>44925</v>
       </c>
@@ -16566,7 +16571,7 @@
         <v>32.872500000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16">
       <c r="A280" s="12">
         <v>44957</v>
       </c>
@@ -16616,7 +16621,7 @@
         <v>33.405000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16">
       <c r="A281" s="12">
         <v>44985</v>
       </c>
@@ -16666,7 +16671,7 @@
         <v>33.034999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16">
       <c r="A282" s="12">
         <v>45016</v>
       </c>
@@ -16726,16 +16731,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CN282"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -17088,9 +17096,9 @@
         <v>India</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -17366,7 +17374,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92">
       <c r="A3" s="12">
         <v>36525</v>
       </c>
@@ -17635,7 +17643,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92">
       <c r="A4" s="12">
         <v>36556</v>
       </c>
@@ -17904,7 +17912,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92">
       <c r="A5" s="12">
         <v>36585</v>
       </c>
@@ -18173,7 +18181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92">
       <c r="A6" s="12">
         <v>36616</v>
       </c>
@@ -18442,7 +18450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92">
       <c r="A7" s="12">
         <v>36644</v>
       </c>
@@ -18711,7 +18719,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92">
       <c r="A8" s="12">
         <v>36677</v>
       </c>
@@ -18980,7 +18988,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92">
       <c r="A9" s="12">
         <v>36707</v>
       </c>
@@ -19249,7 +19257,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92">
       <c r="A10" s="12">
         <v>36738</v>
       </c>
@@ -19518,7 +19526,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92">
       <c r="A11" s="12">
         <v>36769</v>
       </c>
@@ -19787,7 +19795,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92">
       <c r="A12" s="12">
         <v>36798</v>
       </c>
@@ -20056,7 +20064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92">
       <c r="A13" s="12">
         <v>36830</v>
       </c>
@@ -20325,7 +20333,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92">
       <c r="A14" s="12">
         <v>36860</v>
       </c>
@@ -20594,7 +20602,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92">
       <c r="A15" s="12">
         <v>36889</v>
       </c>
@@ -20863,7 +20871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92">
       <c r="A16" s="12">
         <v>36922</v>
       </c>
@@ -21132,7 +21140,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92">
       <c r="A17" s="12">
         <v>36950</v>
       </c>
@@ -21401,7 +21409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92">
       <c r="A18" s="12">
         <v>36980</v>
       </c>
@@ -21670,7 +21678,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92">
       <c r="A19" s="12">
         <v>37011</v>
       </c>
@@ -21939,7 +21947,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92">
       <c r="A20" s="12">
         <v>37042</v>
       </c>
@@ -22208,7 +22216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92">
       <c r="A21" s="12">
         <v>37071</v>
       </c>
@@ -22477,7 +22485,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92">
       <c r="A22" s="12">
         <v>37103</v>
       </c>
@@ -22746,7 +22754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92">
       <c r="A23" s="12">
         <v>37134</v>
       </c>
@@ -23015,7 +23023,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92">
       <c r="A24" s="12">
         <v>37162</v>
       </c>
@@ -23284,7 +23292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92">
       <c r="A25" s="12">
         <v>37195</v>
       </c>
@@ -23553,7 +23561,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:92">
       <c r="A26" s="12">
         <v>37225</v>
       </c>
@@ -23822,7 +23830,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:92">
       <c r="A27" s="12">
         <v>37256</v>
       </c>
@@ -24091,7 +24099,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:92">
       <c r="A28" s="12">
         <v>37287</v>
       </c>
@@ -24360,7 +24368,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92">
       <c r="A29" s="12">
         <v>37315</v>
       </c>
@@ -24629,7 +24637,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92">
       <c r="A30" s="12">
         <v>37344</v>
       </c>
@@ -24898,7 +24906,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:92">
       <c r="A31" s="12">
         <v>37376</v>
       </c>
@@ -25167,7 +25175,7 @@
         <v>7.9969999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:92">
       <c r="A32" s="12">
         <v>37407</v>
       </c>
@@ -25436,7 +25444,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:92">
       <c r="A33" s="12">
         <v>37435</v>
       </c>
@@ -25705,7 +25713,7 @@
         <v>8.2870000000000008</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:92">
       <c r="A34" s="12">
         <v>37468</v>
       </c>
@@ -25974,7 +25982,7 @@
         <v>8.0009999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:92">
       <c r="A35" s="12">
         <v>37498</v>
       </c>
@@ -26243,7 +26251,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:92">
       <c r="A36" s="12">
         <v>37529</v>
       </c>
@@ -26512,7 +26520,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:92">
       <c r="A37" s="12">
         <v>37560</v>
       </c>
@@ -26781,7 +26789,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:92">
       <c r="A38" s="12">
         <v>37589</v>
       </c>
@@ -27050,7 +27058,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:92">
       <c r="A39" s="12">
         <v>37621</v>
       </c>
@@ -27319,7 +27327,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:92">
       <c r="A40" s="12">
         <v>37652</v>
       </c>
@@ -27588,7 +27596,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:92">
       <c r="A41" s="12">
         <v>37680</v>
       </c>
@@ -27857,7 +27865,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:92">
       <c r="A42" s="12">
         <v>37711</v>
       </c>
@@ -28126,7 +28134,7 @@
         <v>6.8339999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:92">
       <c r="A43" s="12">
         <v>37741</v>
       </c>
@@ -28395,7 +28403,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:92">
       <c r="A44" s="12">
         <v>37771</v>
       </c>
@@ -28664,7 +28672,7 @@
         <v>6.2210000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:92">
       <c r="A45" s="12">
         <v>37802</v>
       </c>
@@ -28933,7 +28941,7 @@
         <v>6.2220000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:92">
       <c r="A46" s="12">
         <v>37833</v>
       </c>
@@ -29202,7 +29210,7 @@
         <v>6.1909999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:92">
       <c r="A47" s="12">
         <v>37862</v>
       </c>
@@ -29471,7 +29479,7 @@
         <v>6.0259999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:92">
       <c r="A48" s="12">
         <v>37894</v>
       </c>
@@ -29740,7 +29748,7 @@
         <v>6.0650000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:92">
       <c r="A49" s="12">
         <v>37925</v>
       </c>
@@ -30009,7 +30017,7 @@
         <v>5.8360000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:92">
       <c r="A50" s="12">
         <v>37953</v>
       </c>
@@ -30278,7 +30286,7 @@
         <v>5.8360000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:92">
       <c r="A51" s="12">
         <v>37986</v>
       </c>
@@ -30547,7 +30555,7 @@
         <v>5.9809999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:92">
       <c r="A52" s="12">
         <v>38016</v>
       </c>
@@ -30816,7 +30824,7 @@
         <v>6.1440000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:92">
       <c r="A53" s="12">
         <v>38044</v>
       </c>
@@ -31085,7 +31093,7 @@
         <v>6.1479999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:92">
       <c r="A54" s="12">
         <v>38077</v>
       </c>
@@ -31354,7 +31362,7 @@
         <v>6.0090000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:92">
       <c r="A55" s="12">
         <v>38107</v>
       </c>
@@ -31623,7 +31631,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:92">
       <c r="A56" s="12">
         <v>38138</v>
       </c>
@@ -31892,7 +31900,7 @@
         <v>6.1440000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:92">
       <c r="A57" s="12">
         <v>38168</v>
       </c>
@@ -32161,7 +32169,7 @@
         <v>6.6029999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:92">
       <c r="A58" s="12">
         <v>38198</v>
       </c>
@@ -32430,7 +32438,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:92">
       <c r="A59" s="12">
         <v>38230</v>
       </c>
@@ -32699,7 +32707,7 @@
         <v>7.2569999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:92">
       <c r="A60" s="12">
         <v>38260</v>
       </c>
@@ -32968,7 +32976,7 @@
         <v>7.1120000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:92">
       <c r="A61" s="12">
         <v>38289</v>
       </c>
@@ -33237,7 +33245,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:92">
       <c r="A62" s="12">
         <v>38321</v>
       </c>
@@ -33506,7 +33514,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:92">
       <c r="A63" s="12">
         <v>38352</v>
       </c>
@@ -33775,7 +33783,7 @@
         <v>7.0519999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:92">
       <c r="A64" s="12">
         <v>38383</v>
       </c>
@@ -34044,7 +34052,7 @@
         <v>7.4480000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92">
       <c r="A65" s="12">
         <v>38411</v>
       </c>
@@ -34313,7 +34321,7 @@
         <v>7.1829999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:92">
       <c r="A66" s="12">
         <v>38442</v>
       </c>
@@ -34582,7 +34590,7 @@
         <v>7.1820000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92">
       <c r="A67" s="12">
         <v>38471</v>
       </c>
@@ -34851,7 +34859,7 @@
         <v>7.8250000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:92">
       <c r="A68" s="12">
         <v>38503</v>
       </c>
@@ -35120,7 +35128,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:92">
       <c r="A69" s="12">
         <v>38533</v>
       </c>
@@ -35389,7 +35397,7 @@
         <v>7.4290000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:92">
       <c r="A70" s="12">
         <v>38562</v>
       </c>
@@ -35658,7 +35666,7 @@
         <v>7.4560000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:92">
       <c r="A71" s="12">
         <v>38595</v>
       </c>
@@ -35927,7 +35935,7 @@
         <v>7.5140000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:92">
       <c r="A72" s="12">
         <v>38625</v>
       </c>
@@ -36196,7 +36204,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="73" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:92">
       <c r="A73" s="12">
         <v>38656</v>
       </c>
@@ -36465,7 +36473,7 @@
         <v>7.5529999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:92">
       <c r="A74" s="12">
         <v>38686</v>
       </c>
@@ -36734,7 +36742,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="75" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:92">
       <c r="A75" s="12">
         <v>38716</v>
       </c>
@@ -37003,7 +37011,7 @@
         <v>7.4489999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:92">
       <c r="A76" s="12">
         <v>38748</v>
       </c>
@@ -37272,7 +37280,7 @@
         <v>7.5110000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92">
       <c r="A77" s="12">
         <v>38776</v>
       </c>
@@ -37541,7 +37549,7 @@
         <v>7.6550000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92">
       <c r="A78" s="12">
         <v>38807</v>
       </c>
@@ -37810,7 +37818,7 @@
         <v>7.819</v>
       </c>
     </row>
-    <row r="79" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:92">
       <c r="A79" s="12">
         <v>38835</v>
       </c>
@@ -38079,7 +38087,7 @@
         <v>7.9640000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:92">
       <c r="A80" s="12">
         <v>38868</v>
       </c>
@@ -38348,7 +38356,7 @@
         <v>8.2010000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:92">
       <c r="A81" s="12">
         <v>38898</v>
       </c>
@@ -38617,7 +38625,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:92">
       <c r="A82" s="12">
         <v>38929</v>
       </c>
@@ -38886,7 +38894,7 @@
         <v>8.8729999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:92">
       <c r="A83" s="12">
         <v>38960</v>
       </c>
@@ -39155,7 +39163,7 @@
         <v>8.5079999999999991</v>
       </c>
     </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:92">
       <c r="A84" s="12">
         <v>38989</v>
       </c>
@@ -39424,7 +39432,7 @@
         <v>8.2720000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:92">
       <c r="A85" s="12">
         <v>39021</v>
       </c>
@@ -39693,7 +39701,7 @@
         <v>8.1229999999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:92">
       <c r="A86" s="12">
         <v>39051</v>
       </c>
@@ -39962,7 +39970,7 @@
         <v>7.609</v>
       </c>
     </row>
-    <row r="87" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:92">
       <c r="A87" s="12">
         <v>39080</v>
       </c>
@@ -40231,7 +40239,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="88" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:92">
       <c r="A88" s="12">
         <v>39113</v>
       </c>
@@ -40500,7 +40508,7 @@
         <v>8.1530000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:92">
       <c r="A89" s="12">
         <v>39141</v>
       </c>
@@ -40769,7 +40777,7 @@
         <v>8.1869999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:92">
       <c r="A90" s="12">
         <v>39171</v>
       </c>
@@ -41038,7 +41046,7 @@
         <v>8.3360000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:92">
       <c r="A91" s="12">
         <v>39202</v>
       </c>
@@ -41307,7 +41315,7 @@
         <v>8.4939999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:92">
       <c r="A92" s="12">
         <v>39233</v>
       </c>
@@ -41576,7 +41584,7 @@
         <v>8.4580000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:92">
       <c r="A93" s="12">
         <v>39262</v>
       </c>
@@ -41845,7 +41853,7 @@
         <v>8.5269999999999992</v>
       </c>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:92">
       <c r="A94" s="12">
         <v>39294</v>
       </c>
@@ -42114,7 +42122,7 @@
         <v>8.3569999999999993</v>
       </c>
     </row>
-    <row r="95" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:92">
       <c r="A95" s="12">
         <v>39325</v>
       </c>
@@ -42383,7 +42391,7 @@
         <v>8.3320000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:92">
       <c r="A96" s="12">
         <v>39353</v>
       </c>
@@ -42652,7 +42660,7 @@
         <v>8.4190000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:92">
       <c r="A97" s="12">
         <v>39386</v>
       </c>
@@ -42921,7 +42929,7 @@
         <v>8.3109999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:92">
       <c r="A98" s="12">
         <v>39416</v>
       </c>
@@ -43190,7 +43198,7 @@
         <v>8.3460000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:92">
       <c r="A99" s="12">
         <v>39447</v>
       </c>
@@ -43459,7 +43467,7 @@
         <v>8.1180000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:92">
       <c r="A100" s="12">
         <v>39478</v>
       </c>
@@ -43728,7 +43736,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="101" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:92">
       <c r="A101" s="12">
         <v>39507</v>
       </c>
@@ -43997,7 +44005,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="102" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:92">
       <c r="A102" s="12">
         <v>39538</v>
       </c>
@@ -44266,7 +44274,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="103" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:92">
       <c r="A103" s="12">
         <v>39568</v>
       </c>
@@ -44535,7 +44543,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="104" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:92">
       <c r="A104" s="12">
         <v>39598</v>
       </c>
@@ -44804,7 +44812,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="105" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:92">
       <c r="A105" s="12">
         <v>39629</v>
       </c>
@@ -45073,7 +45081,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="106" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:92">
       <c r="A106" s="12">
         <v>39660</v>
       </c>
@@ -45342,7 +45350,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="107" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:92">
       <c r="A107" s="12">
         <v>39689</v>
       </c>
@@ -45611,7 +45619,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="108" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:92">
       <c r="A108" s="12">
         <v>39721</v>
       </c>
@@ -45880,7 +45888,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="109" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:92">
       <c r="A109" s="12">
         <v>39752</v>
       </c>
@@ -46149,7 +46157,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="110" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:92">
       <c r="A110" s="12">
         <v>39780</v>
       </c>
@@ -46418,7 +46426,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="111" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:92">
       <c r="A111" s="12">
         <v>39813</v>
       </c>
@@ -46687,7 +46695,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="112" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:92">
       <c r="A112" s="12">
         <v>39843</v>
       </c>
@@ -46956,7 +46964,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="113" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:92">
       <c r="A113" s="12">
         <v>39871</v>
       </c>
@@ -47225,7 +47233,7 @@
         <v>7.6040000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:92">
       <c r="A114" s="12">
         <v>39903</v>
       </c>
@@ -47494,7 +47502,7 @@
         <v>7.8040000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:92">
       <c r="A115" s="12">
         <v>39933</v>
       </c>
@@ -47763,7 +47771,7 @@
         <v>7.2460000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:92">
       <c r="A116" s="12">
         <v>39962</v>
       </c>
@@ -48032,7 +48040,7 @@
         <v>7.6319999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:92">
       <c r="A117" s="12">
         <v>39994</v>
       </c>
@@ -48301,7 +48309,7 @@
         <v>7.6970000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:92">
       <c r="A118" s="12">
         <v>40025</v>
       </c>
@@ -48570,7 +48578,7 @@
         <v>7.8310000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:92">
       <c r="A119" s="12">
         <v>40056</v>
       </c>
@@ -48839,7 +48847,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="120" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:92">
       <c r="A120" s="12">
         <v>40086</v>
       </c>
@@ -49108,7 +49116,7 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="121" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:92">
       <c r="A121" s="12">
         <v>40116</v>
       </c>
@@ -49377,7 +49385,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="122" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:92">
       <c r="A122" s="12">
         <v>40147</v>
       </c>
@@ -49646,7 +49654,7 @@
         <v>8.4260000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:92">
       <c r="A123" s="12">
         <v>40178</v>
       </c>
@@ -49915,7 +49923,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="124" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:92">
       <c r="A124" s="12">
         <v>40207</v>
       </c>
@@ -50184,7 +50192,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="125" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:92">
       <c r="A125" s="12">
         <v>40235</v>
       </c>
@@ -50453,7 +50461,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="126" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:92">
       <c r="A126" s="12">
         <v>40268</v>
       </c>
@@ -50722,7 +50730,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="127" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:92">
       <c r="A127" s="12">
         <v>40298</v>
       </c>
@@ -50991,7 +50999,7 @@
         <v>8.4879999999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:92">
       <c r="A128" s="12">
         <v>40329</v>
       </c>
@@ -51260,7 +51268,7 @@
         <v>8.4510000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:92">
       <c r="A129" s="12">
         <v>40359</v>
       </c>
@@ -51529,7 +51537,7 @@
         <v>8.4510000000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:92">
       <c r="A130" s="12">
         <v>40389</v>
       </c>
@@ -51798,7 +51806,7 @@
         <v>8.4510000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:92">
       <c r="A131" s="12">
         <v>40421</v>
       </c>
@@ -52067,7 +52075,7 @@
         <v>8.3879999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:92">
       <c r="A132" s="12">
         <v>40451</v>
       </c>
@@ -52336,7 +52344,7 @@
         <v>8.3260000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:92">
       <c r="A133" s="12">
         <v>40480</v>
       </c>
@@ -52605,7 +52613,7 @@
         <v>8.4719999999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:92">
       <c r="A134" s="12">
         <v>40512</v>
       </c>
@@ -52874,7 +52882,7 @@
         <v>8.4649999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:92">
       <c r="A135" s="12">
         <v>40543</v>
       </c>
@@ -53143,7 +53151,7 @@
         <v>8.4280000000000008</v>
       </c>
     </row>
-    <row r="136" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:92">
       <c r="A136" s="12">
         <v>40574</v>
       </c>
@@ -53412,7 +53420,7 @@
         <v>8.5619999999999994</v>
       </c>
     </row>
-    <row r="137" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:92">
       <c r="A137" s="12">
         <v>40602</v>
       </c>
@@ -53681,7 +53689,7 @@
         <v>8.5329999999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:92">
       <c r="A138" s="12">
         <v>40633</v>
       </c>
@@ -53950,7 +53958,7 @@
         <v>8.3620000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:92">
       <c r="A139" s="12">
         <v>40662</v>
       </c>
@@ -54219,7 +54227,7 @@
         <v>8.4979999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:92">
       <c r="A140" s="12">
         <v>40694</v>
       </c>
@@ -54488,7 +54496,7 @@
         <v>8.6620000000000008</v>
       </c>
     </row>
-    <row r="141" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:92">
       <c r="A141" s="12">
         <v>40724</v>
       </c>
@@ -54757,7 +54765,7 @@
         <v>8.6010000000000009</v>
       </c>
     </row>
-    <row r="142" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:92">
       <c r="A142" s="12">
         <v>40753</v>
       </c>
@@ -55026,7 +55034,7 @@
         <v>8.7260000000000009</v>
       </c>
     </row>
-    <row r="143" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:92">
       <c r="A143" s="12">
         <v>40786</v>
       </c>
@@ -55295,7 +55303,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:92">
       <c r="A144" s="12">
         <v>40816</v>
       </c>
@@ -55564,7 +55572,7 @@
         <v>8.6150000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:92">
       <c r="A145" s="12">
         <v>40847</v>
       </c>
@@ -55833,7 +55841,7 @@
         <v>9.0020000000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:92">
       <c r="A146" s="12">
         <v>40877</v>
       </c>
@@ -56102,7 +56110,7 @@
         <v>9.1329999999999991</v>
       </c>
     </row>
-    <row r="147" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:92">
       <c r="A147" s="12">
         <v>40907</v>
       </c>
@@ -56371,7 +56379,7 @@
         <v>8.8230000000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:92">
       <c r="A148" s="12">
         <v>40939</v>
       </c>
@@ -56640,7 +56648,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:92">
       <c r="A149" s="12">
         <v>40968</v>
       </c>
@@ -56909,7 +56917,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:92">
       <c r="A150" s="12">
         <v>40998</v>
       </c>
@@ -57178,7 +57186,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="151" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:92">
       <c r="A151" s="12">
         <v>41029</v>
       </c>
@@ -57447,7 +57455,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:92">
       <c r="A152" s="12">
         <v>41060</v>
       </c>
@@ -57716,7 +57724,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="153" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:92">
       <c r="A153" s="12">
         <v>41089</v>
       </c>
@@ -57985,7 +57993,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:92">
       <c r="A154" s="12">
         <v>41121</v>
       </c>
@@ -58254,7 +58262,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:92">
       <c r="A155" s="12">
         <v>41152</v>
       </c>
@@ -58523,7 +58531,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:92">
       <c r="A156" s="12">
         <v>41180</v>
       </c>
@@ -58792,7 +58800,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:92">
       <c r="A157" s="12">
         <v>41213</v>
       </c>
@@ -59061,7 +59069,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="158" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:92">
       <c r="A158" s="12">
         <v>41243</v>
       </c>
@@ -59330,7 +59338,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="159" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:92">
       <c r="A159" s="12">
         <v>41274</v>
       </c>
@@ -59599,7 +59607,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="160" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:92">
       <c r="A160" s="12">
         <v>41305</v>
       </c>
@@ -59868,7 +59876,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="161" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:92">
       <c r="A161" s="12">
         <v>41333</v>
       </c>
@@ -60137,7 +60145,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="162" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:92">
       <c r="A162" s="12">
         <v>41362</v>
       </c>
@@ -60406,7 +60414,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:92">
       <c r="A163" s="12">
         <v>41394</v>
       </c>
@@ -60675,7 +60683,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:92">
       <c r="A164" s="12">
         <v>41425</v>
       </c>
@@ -60944,7 +60952,7 @@
         <v>8.6720000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:92">
       <c r="A165" s="12">
         <v>41453</v>
       </c>
@@ -61213,7 +61221,7 @@
         <v>7.8860000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:92">
       <c r="A166" s="12">
         <v>41486</v>
       </c>
@@ -61482,7 +61490,7 @@
         <v>8.8070000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:92">
       <c r="A167" s="12">
         <v>41516</v>
       </c>
@@ -61751,7 +61759,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:92">
       <c r="A168" s="12">
         <v>41547</v>
       </c>
@@ -62020,7 +62028,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="169" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:92">
       <c r="A169" s="12">
         <v>41578</v>
       </c>
@@ -62289,7 +62297,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:92">
       <c r="A170" s="12">
         <v>41607</v>
       </c>
@@ -62558,7 +62566,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:92">
       <c r="A171" s="12">
         <v>41639</v>
       </c>
@@ -62827,7 +62835,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:92">
       <c r="A172" s="12">
         <v>41670</v>
       </c>
@@ -63096,7 +63104,7 @@
         <v>9.2780000000000005</v>
       </c>
     </row>
-    <row r="173" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:92">
       <c r="A173" s="12">
         <v>41698</v>
       </c>
@@ -63365,7 +63373,7 @@
         <v>9.3239999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:92">
       <c r="A174" s="12">
         <v>41729</v>
       </c>
@@ -63634,7 +63642,7 @@
         <v>9.2219999999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:92">
       <c r="A175" s="12">
         <v>41759</v>
       </c>
@@ -63903,7 +63911,7 @@
         <v>9.1120000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:92">
       <c r="A176" s="12">
         <v>41789</v>
       </c>
@@ -64172,7 +64180,7 @@
         <v>8.7889999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:92">
       <c r="A177" s="12">
         <v>41820</v>
       </c>
@@ -64441,7 +64449,7 @@
         <v>8.7850000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:92">
       <c r="A178" s="12">
         <v>41851</v>
       </c>
@@ -64710,7 +64718,7 @@
         <v>8.734</v>
       </c>
     </row>
-    <row r="179" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:92">
       <c r="A179" s="12">
         <v>41880</v>
       </c>
@@ -64979,7 +64987,7 @@
         <v>8.7880000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:92">
       <c r="A180" s="12">
         <v>41912</v>
       </c>
@@ -65248,7 +65256,7 @@
         <v>8.7040000000000006</v>
       </c>
     </row>
-    <row r="181" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:92">
       <c r="A181" s="12">
         <v>41943</v>
       </c>
@@ -65517,7 +65525,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="182" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:92">
       <c r="A182" s="12">
         <v>41971</v>
       </c>
@@ -65786,7 +65794,7 @@
         <v>8.1969999999999992</v>
       </c>
     </row>
-    <row r="183" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:92">
       <c r="A183" s="12">
         <v>42004</v>
       </c>
@@ -66055,7 +66063,7 @@
         <v>7.9420000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:92">
       <c r="A184" s="12">
         <v>42034</v>
       </c>
@@ -66324,7 +66332,7 @@
         <v>7.718</v>
       </c>
     </row>
-    <row r="185" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:92">
       <c r="A185" s="12">
         <v>42062</v>
       </c>
@@ -66593,7 +66601,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:92">
       <c r="A186" s="12">
         <v>42094</v>
       </c>
@@ -66862,7 +66870,7 @@
         <v>7.8079999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:92">
       <c r="A187" s="12">
         <v>42124</v>
       </c>
@@ -67131,7 +67139,7 @@
         <v>7.9050000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:92">
       <c r="A188" s="12">
         <v>42153</v>
       </c>
@@ -67400,7 +67408,7 @@
         <v>7.9619999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:92">
       <c r="A189" s="12">
         <v>42185</v>
       </c>
@@ -67669,7 +67677,7 @@
         <v>8.1519999999999992</v>
       </c>
     </row>
-    <row r="190" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:92">
       <c r="A190" s="12">
         <v>42216</v>
       </c>
@@ -67938,7 +67946,7 @@
         <v>8.0139999999999993</v>
       </c>
     </row>
-    <row r="191" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:92">
       <c r="A191" s="12">
         <v>42247</v>
       </c>
@@ -68207,7 +68215,7 @@
         <v>7.9960000000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:92">
       <c r="A192" s="12">
         <v>42277</v>
       </c>
@@ -68476,7 +68484,7 @@
         <v>7.8140000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:92">
       <c r="A193" s="12">
         <v>42307</v>
       </c>
@@ -68745,7 +68753,7 @@
         <v>7.8490000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:92">
       <c r="A194" s="12">
         <v>42338</v>
       </c>
@@ -69014,7 +69022,7 @@
         <v>8.0009999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:92">
       <c r="A195" s="12">
         <v>42369</v>
       </c>
@@ -69283,7 +69291,7 @@
         <v>8.0839999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:92">
       <c r="A196" s="12">
         <v>42398</v>
       </c>
@@ -69552,7 +69560,7 @@
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="197" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:92">
       <c r="A197" s="12">
         <v>42429</v>
       </c>
@@ -69821,7 +69829,7 @@
         <v>8.2620000000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:92">
       <c r="A198" s="12">
         <v>42460</v>
       </c>
@@ -70090,7 +70098,7 @@
         <v>7.9240000000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:92">
       <c r="A199" s="12">
         <v>42489</v>
       </c>
@@ -70359,7 +70367,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:92">
       <c r="A200" s="12">
         <v>42521</v>
       </c>
@@ -70628,7 +70636,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:92">
       <c r="A201" s="12">
         <v>42551</v>
       </c>
@@ -70897,7 +70905,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:92">
       <c r="A202" s="12">
         <v>42580</v>
       </c>
@@ -71166,7 +71174,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:92">
       <c r="A203" s="12">
         <v>42613</v>
       </c>
@@ -71435,7 +71443,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:92">
       <c r="A204" s="12">
         <v>42643</v>
       </c>
@@ -71704,7 +71712,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:92">
       <c r="A205" s="12">
         <v>42674</v>
       </c>
@@ -71973,7 +71981,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:92">
       <c r="A206" s="12">
         <v>42704</v>
       </c>
@@ -72242,7 +72250,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:92">
       <c r="A207" s="12">
         <v>42734</v>
       </c>
@@ -72511,7 +72519,7 @@
         <v>7.1109999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:92">
       <c r="A208" s="12">
         <v>42766</v>
       </c>
@@ -72780,7 +72788,7 @@
         <v>7.0279999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:92">
       <c r="A209" s="12">
         <v>42794</v>
       </c>
@@ -73049,7 +73057,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="210" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:92">
       <c r="A210" s="12">
         <v>42825</v>
       </c>
@@ -73318,7 +73326,7 @@
         <v>7.359</v>
       </c>
     </row>
-    <row r="211" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:92">
       <c r="A211" s="12">
         <v>42853</v>
       </c>
@@ -73587,7 +73595,7 @@
         <v>7.4729999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:92">
       <c r="A212" s="12">
         <v>42886</v>
       </c>
@@ -73856,7 +73864,7 @@
         <v>7.3529999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:92">
       <c r="A213" s="12">
         <v>42916</v>
       </c>
@@ -74125,7 +74133,7 @@
         <v>7.1159999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:92">
       <c r="A214" s="12">
         <v>42947</v>
       </c>
@@ -74394,7 +74402,7 @@
         <v>7.0960000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:92">
       <c r="A215" s="12">
         <v>42978</v>
       </c>
@@ -74663,7 +74671,7 @@
         <v>7.1369999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:92">
       <c r="A216" s="12">
         <v>43007</v>
       </c>
@@ -74932,7 +74940,7 @@
         <v>7.2690000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:92">
       <c r="A217" s="12">
         <v>43039</v>
       </c>
@@ -75201,7 +75209,7 @@
         <v>7.306</v>
       </c>
     </row>
-    <row r="218" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:92">
       <c r="A218" s="12">
         <v>43069</v>
       </c>
@@ -75470,7 +75478,7 @@
         <v>7.4580000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:92">
       <c r="A219" s="12">
         <v>43098</v>
       </c>
@@ -75739,7 +75747,7 @@
         <v>7.6420000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:92">
       <c r="A220" s="12">
         <v>43131</v>
       </c>
@@ -76008,7 +76016,7 @@
         <v>7.6239999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:92">
       <c r="A221" s="12">
         <v>43159</v>
       </c>
@@ -76277,7 +76285,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="222" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:92">
       <c r="A222" s="12">
         <v>43189</v>
       </c>
@@ -76546,7 +76554,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:92">
       <c r="A223" s="12">
         <v>43220</v>
       </c>
@@ -76815,7 +76823,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:92">
       <c r="A224" s="12">
         <v>43251</v>
       </c>
@@ -77084,7 +77092,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:92">
       <c r="A225" s="12">
         <v>43280</v>
       </c>
@@ -77353,7 +77361,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:92">
       <c r="A226" s="12">
         <v>43312</v>
       </c>
@@ -77622,7 +77630,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:92">
       <c r="A227" s="12">
         <v>43343</v>
       </c>
@@ -77891,7 +77899,7 @@
         <v>7.9409999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:92">
       <c r="A228" s="12">
         <v>43371</v>
       </c>
@@ -78160,7 +78168,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="229" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:92">
       <c r="A229" s="12">
         <v>43404</v>
       </c>
@@ -78429,7 +78437,7 @@
         <v>8.1839999999999993</v>
       </c>
     </row>
-    <row r="230" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:92">
       <c r="A230" s="12">
         <v>43434</v>
       </c>
@@ -78698,7 +78706,7 @@
         <v>8.1630000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:92">
       <c r="A231" s="12">
         <v>43465</v>
       </c>
@@ -78967,7 +78975,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="232" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:92">
       <c r="A232" s="12">
         <v>43496</v>
       </c>
@@ -79236,7 +79244,7 @@
         <v>7.6950000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:92">
       <c r="A233" s="12">
         <v>43524</v>
       </c>
@@ -79505,7 +79513,7 @@
         <v>7.6710000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:92">
       <c r="A234" s="12">
         <v>43553</v>
       </c>
@@ -79774,7 +79782,7 @@
         <v>7.774</v>
       </c>
     </row>
-    <row r="235" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:92">
       <c r="A235" s="12">
         <v>43585</v>
       </c>
@@ -80043,7 +80051,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="236" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:92">
       <c r="A236" s="12">
         <v>43616</v>
       </c>
@@ -80312,7 +80320,7 @@
         <v>7.3140000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:92">
       <c r="A237" s="12">
         <v>43644</v>
       </c>
@@ -80581,7 +80589,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="238" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:92">
       <c r="A238" s="12">
         <v>43677</v>
       </c>
@@ -80850,7 +80858,7 @@
         <v>6.8470000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:92">
       <c r="A239" s="12">
         <v>43707</v>
       </c>
@@ -81119,7 +81127,7 @@
         <v>7.0179999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:92">
       <c r="A240" s="12">
         <v>43738</v>
       </c>
@@ -81388,7 +81396,7 @@
         <v>7.1479999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:92">
       <c r="A241" s="12">
         <v>43769</v>
       </c>
@@ -81657,7 +81665,7 @@
         <v>7.0860000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:92">
       <c r="A242" s="12">
         <v>43798</v>
       </c>
@@ -81926,7 +81934,7 @@
         <v>7.1710000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:92">
       <c r="A243" s="12">
         <v>43830</v>
       </c>
@@ -82195,7 +82203,7 @@
         <v>7.1260000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:92">
       <c r="A244" s="12">
         <v>43861</v>
       </c>
@@ -82464,7 +82472,7 @@
         <v>7.0839999999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:92">
       <c r="A245" s="12">
         <v>43889</v>
       </c>
@@ -82733,7 +82741,7 @@
         <v>6.8040000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:92">
       <c r="A246" s="12">
         <v>43921</v>
       </c>
@@ -83002,7 +83010,7 @@
         <v>6.8090000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:92">
       <c r="A247" s="12">
         <v>43951</v>
       </c>
@@ -83271,7 +83279,7 @@
         <v>6.8090000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:92">
       <c r="A248" s="12">
         <v>43980</v>
       </c>
@@ -83540,7 +83548,7 @@
         <v>6.5819999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:92">
       <c r="A249" s="12">
         <v>44012</v>
       </c>
@@ -83809,7 +83817,7 @@
         <v>6.548</v>
       </c>
     </row>
-    <row r="250" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:92">
       <c r="A250" s="12">
         <v>44043</v>
       </c>
@@ -84078,7 +84086,7 @@
         <v>6.4130000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:92">
       <c r="A251" s="12">
         <v>44074</v>
       </c>
@@ -84347,7 +84355,7 @@
         <v>6.7530000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:92">
       <c r="A252" s="12">
         <v>44104</v>
       </c>
@@ -84616,7 +84624,7 @@
         <v>6.7530000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:92">
       <c r="A253" s="12">
         <v>44134</v>
       </c>
@@ -84885,7 +84893,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="254" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:92">
       <c r="A254" s="12">
         <v>44165</v>
       </c>
@@ -85154,7 +85162,7 @@
         <v>6.5919999999999996</v>
       </c>
     </row>
-    <row r="255" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:92">
       <c r="A255" s="12">
         <v>44196</v>
       </c>
@@ -85423,7 +85431,7 @@
         <v>6.532</v>
       </c>
     </row>
-    <row r="256" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:92">
       <c r="A256" s="12">
         <v>44225</v>
       </c>
@@ -85692,7 +85700,7 @@
         <v>6.516</v>
       </c>
     </row>
-    <row r="257" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:92">
       <c r="A257" s="12">
         <v>44253</v>
       </c>
@@ -85961,7 +85969,7 @@
         <v>6.516</v>
       </c>
     </row>
-    <row r="258" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:92">
       <c r="A258" s="12">
         <v>44286</v>
       </c>
@@ -86230,7 +86238,7 @@
         <v>6.7670000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:92">
       <c r="A259" s="12">
         <v>44316</v>
       </c>
@@ -86499,7 +86507,7 @@
         <v>6.7839999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:92">
       <c r="A260" s="12">
         <v>44347</v>
       </c>
@@ -86768,7 +86776,7 @@
         <v>6.9420000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:92">
       <c r="A261" s="12">
         <v>44377</v>
       </c>
@@ -87037,7 +87045,7 @@
         <v>6.976</v>
       </c>
     </row>
-    <row r="262" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:92">
       <c r="A262" s="12">
         <v>44407</v>
       </c>
@@ -87306,7 +87314,7 @@
         <v>7.0759999999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:92">
       <c r="A263" s="12">
         <v>44439</v>
       </c>
@@ -87575,7 +87583,7 @@
         <v>7.0890000000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:92">
       <c r="A264" s="12">
         <v>44469</v>
       </c>
@@ -87844,7 +87852,7 @@
         <v>6.9859999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:92">
       <c r="A265" s="12">
         <v>44498</v>
       </c>
@@ -88113,7 +88121,7 @@
         <v>7.0730000000000004</v>
       </c>
     </row>
-    <row r="266" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:92">
       <c r="A266" s="12">
         <v>44530</v>
       </c>
@@ -88382,7 +88390,7 @@
         <v>6.8869999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:92">
       <c r="A267" s="12">
         <v>44561</v>
       </c>
@@ -88651,7 +88659,7 @@
         <v>7.0620000000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:92">
       <c r="A268" s="12">
         <v>44592</v>
       </c>
@@ -88920,7 +88928,7 @@
         <v>7.2859999999999996</v>
       </c>
     </row>
-    <row r="269" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:92">
       <c r="A269" s="12">
         <v>44620</v>
       </c>
@@ -89189,7 +89197,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="270" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:92">
       <c r="A270" s="12">
         <v>44651</v>
       </c>
@@ -89458,7 +89466,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:92">
       <c r="A271" s="12">
         <v>44680</v>
       </c>
@@ -89727,7 +89735,7 @@
         <v>7.4210000000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:92">
       <c r="A272" s="12">
         <v>44712</v>
       </c>
@@ -89996,7 +90004,7 @@
         <v>7.6689999999999996</v>
       </c>
     </row>
-    <row r="273" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:92">
       <c r="A273" s="12">
         <v>44742</v>
       </c>
@@ -90265,7 +90273,7 @@
         <v>7.7240000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:92">
       <c r="A274" s="12">
         <v>44771</v>
       </c>
@@ -90534,7 +90542,7 @@
         <v>7.6790000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:92">
       <c r="A275" s="12">
         <v>44804</v>
       </c>
@@ -90803,7 +90811,7 @@
         <v>7.4619999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:92">
       <c r="A276" s="12">
         <v>44834</v>
       </c>
@@ -91072,7 +91080,7 @@
         <v>7.5449999999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:92">
       <c r="A277" s="12">
         <v>44865</v>
       </c>
@@ -91341,7 +91349,7 @@
         <v>7.5670000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:92">
       <c r="A278" s="12">
         <v>44895</v>
       </c>
@@ -91610,7 +91618,7 @@
         <v>7.3920000000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:92">
       <c r="A279" s="12">
         <v>44925</v>
       </c>
@@ -91879,7 +91887,7 @@
         <v>7.4509999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:92">
       <c r="A280" s="12">
         <v>44957</v>
       </c>
@@ -92148,7 +92156,7 @@
         <v>7.4390000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:92">
       <c r="A281" s="12">
         <v>44985</v>
       </c>
@@ -92417,7 +92425,7 @@
         <v>7.4509999999999996</v>
       </c>
     </row>
-    <row r="282" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:92">
       <c r="A282" s="12">
         <v>45016</v>
       </c>

--- a/1_Data/Data_ETF_YIELDS_1.0.xlsx
+++ b/1_Data/Data_ETF_YIELDS_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corinne Vogel\Documents\UZH\Master 2. Semester\PMP\Code\PMP-Term-Paper\1_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81DF5E2F-BD4E-4932-94D3-3F25D047E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B988E86-195B-4BD5-AB6C-F7B01AD386E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Needs Mapped" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">ETF_TR!$A$2:$P$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2606,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -16722,7 +16721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BN282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -71460,8 +71459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D5B4D-8910-48A5-9AA1-B185E4342A35}">
   <dimension ref="A1:Z282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z1048576"/>
+    <sheetView zoomScale="51" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>

--- a/1_Data/Data_ETF_YIELDS_1.0.xlsx
+++ b/1_Data/Data_ETF_YIELDS_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corinne Vogel\Documents\UZH\Master 2. Semester\PMP\Code\PMP-Term-Paper\1_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE294BED-D958-42AC-BAA7-95BAFE6A12EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6FD7BE-CDE9-47D4-BA49-476E0DBC15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Needs Mapped" sheetId="1" r:id="rId1"/>
@@ -2605,7 +2605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G281" sqref="G281:I281"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
@@ -16719,9 +16721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BN282"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
@@ -71457,7 +71457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D5B4D-8910-48A5-9AA1-B185E4342A35}">
   <dimension ref="A1:AA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
